--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value320.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value320.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7016301697657205</v>
+        <v>1.112518548965454</v>
       </c>
       <c r="B1">
-        <v>0.9450391879416469</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.548382246666195</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>5.33303535948214</v>
+        <v>1.745558857917786</v>
       </c>
       <c r="E1">
-        <v>2.041851362992398</v>
+        <v>1.143004417419434</v>
       </c>
     </row>
   </sheetData>
